--- a/test_cases/TC-1/PE-10.xlsx
+++ b/test_cases/TC-1/PE-10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\UADE\Año 2\Segundo Cutrimestre\Testing de Aplicaciones\TPO\test_cases\PE-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\UADE\Año 2\Segundo Cutrimestre\Testing de Aplicaciones\TPO\test_cases\TC-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B436E8-E087-40E5-B807-DE0AA42569CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B807AB76-6006-4A7C-8CD3-54BB238DE259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1560" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -284,15 +284,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -313,21 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,7 +612,7 @@
   <dimension ref="B1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -655,49 +655,49 @@
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="11"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="15"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -714,10 +714,10 @@
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -727,10 +727,10 @@
       <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,10 +740,10 @@
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="2"/>
     </row>
     <row r="15" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,10 +753,10 @@
       <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="18"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -766,10 +766,10 @@
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -779,10 +779,10 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -798,16 +798,16 @@
     <row r="36" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_cases/TC-1/PE-10.xlsx
+++ b/test_cases/TC-1/PE-10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\UADE\Año 2\Segundo Cutrimestre\Testing de Aplicaciones\TPO\test_cases\TC-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B807AB76-6006-4A7C-8CD3-54BB238DE259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B23E25A-2BE2-429C-8F16-FE3446BA5766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1560" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Resultado esperado</t>
   </si>
   <si>
-    <t>Como usuario quiero poder acceder a la Página Principal (Home) del eCommerce</t>
-  </si>
-  <si>
     <t>Ya tener un usuario registrado para poder acceder a la pagina</t>
   </si>
   <si>
@@ -93,11 +90,27 @@
     <t>User password = 1233</t>
   </si>
   <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>TC-1-2</t>
+  </si>
+  <si>
+    <t>TC-1-1</t>
+  </si>
+  <si>
     <t>PE-10
-Acceder al Home</t>
-  </si>
-  <si>
-    <t>TC-1</t>
+Acceder al Home desde el Home</t>
+  </si>
+  <si>
+    <t>PE-10
+Acceder al Home desde otra parte</t>
+  </si>
+  <si>
+    <t>Como usuario quiero poder acceder a la Página Principal (Home) del eCommerce desde una pagina de un producto</t>
+  </si>
+  <si>
+    <t>Como usuario quiero poder acceder a la Página Principal (Home) del eCommerce desde esta misma pagina</t>
   </si>
 </sst>
 </file>
@@ -145,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -258,11 +271,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -299,6 +325,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -317,16 +355,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -609,17 +641,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G36"/>
+  <dimension ref="B1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="4" max="4" width="3.5703125" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.5703125" customWidth="1"/>
@@ -644,7 +676,7 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -655,159 +687,228 @@
         <v>2</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>19</v>
+      <c r="E3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="E4" s="19"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>8</v>
+      <c r="C5" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="2"/>
       <c r="G5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="16"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="15"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="19"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="G17" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="E22" s="25"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
         <v>2</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="20" t="s">
+      <c r="C24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="15" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:7" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="29.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
+  <mergeCells count="14">
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
